--- a/Customer/FTSolutions/FTSolutions.IEC61034.Runner/Report/IEC61034_QualificationResult_V1.xlsx
+++ b/Customer/FTSolutions/FTSolutions.IEC61034.Runner/Report/IEC61034_QualificationResult_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevProjects\Source\FTSolutions\TestProduct\IEC61034\Customer\FTSolutions\FTSolutions.IEC61034.Runner\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110E5296-330E-44CE-B297-BB8186A68CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B0E208-D20D-41D8-ACB4-B7A03DB75D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92EF80C5-BA18-46BF-B2D9-2C9CBBEA68F1}"/>
   </bookViews>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Corrected Absorbance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Test Condition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,10 +105,6 @@
   </si>
   <si>
     <t>Toluene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standard Absorbance range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -128,11 +120,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Max. Standard Absorbance (m²)</t>
+    <t>Time to max (s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Time to max (s)</t>
+    <t>Max. Standard Absorbance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corrected Absorbance (m²)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard Absorbance range (m²)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,20 +355,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -376,14 +373,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -393,6 +390,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,6 +406,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00F26D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -546,7 +551,7 @@
           <c:spPr>
             <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -769,13 +774,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -791,7 +810,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Chamber Temperature (℃)</a:t>
+              <a:t>Standard Absorbance</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -808,13 +827,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -842,15 +875,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Chamber Temperature</c:v>
+            <c:v>Absorbance</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -870,17 +903,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!ChamberTC</c:f>
+              <c:f>[0]!Absorbance</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-331F-4FDE-8FE0-7E22472BA96E}"/>
+              <c16:uniqueId val="{00000000-61CB-410D-8B20-2E40BF1988AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1106,7 +1142,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Standard Absorbance</a:t>
+              <a:t>Chamber Temperature (℃)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1174,12 +1210,20 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Absorbance</c:v>
+            <c:strRef>
+              <c:f>RawData!$B$2:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Chamber TC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1199,20 +1243,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!Absorbance</c:f>
+              <c:f>[0]!ChamberTC</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
+                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-61CB-410D-8B20-2E40BF1988AA}"/>
+              <c16:uniqueId val="{00000000-3D13-44E2-97CB-578847A495B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3092,23 +3133,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>750</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>153150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="차트 3">
+        <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B93C4B-A04B-48F2-91D2-DF788B96BDE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD8A8C5-7C9E-4D31-B250-59B9987BB330}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3130,23 +3171,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>153150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>143625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1">
+        <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD8A8C5-7C9E-4D31-B250-59B9987BB330}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2FC042F-E643-4876-8B54-B90D6DE4622B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3468,8 +3509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAEA5BA-4328-4FA8-8E38-2F721E6A0B10}">
   <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A39" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD50" sqref="AD50"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AI56" sqref="AI56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3484,26 +3525,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="30" t="s">
-        <v>22</v>
+      <c r="B1" s="29" t="s">
+        <v>20</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
     </row>
     <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -3515,20 +3556,20 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="31" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
       <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3539,18 +3580,18 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
       <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3563,13 +3604,13 @@
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -3589,22 +3630,22 @@
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="22" t="s">
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3615,62 +3656,62 @@
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="19" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3681,20 +3722,20 @@
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3724,18 +3765,18 @@
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3763,7 +3804,7 @@
     <row r="13" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -3793,118 +3834,118 @@
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="21" t="s">
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="21" t="s">
-        <v>25</v>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="23" t="s">
+        <v>22</v>
       </c>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
       <c r="T17" s="3"/>
     </row>
     <row r="18" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
       <c r="T18" s="3"/>
     </row>
     <row r="19" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3915,18 +3956,18 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
       <c r="T19" s="3"/>
     </row>
     <row r="20" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3937,18 +3978,18 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
       <c r="T20" s="3"/>
     </row>
     <row r="21" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3981,18 +4022,18 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
       <c r="T22" s="3"/>
     </row>
     <row r="23" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4003,18 +4044,18 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
       <c r="T23" s="3"/>
     </row>
     <row r="24" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4047,18 +4088,18 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
       <c r="T25" s="3"/>
     </row>
     <row r="26" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4069,18 +4110,18 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
       <c r="T26" s="3"/>
     </row>
     <row r="27" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4091,18 +4132,18 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
       <c r="T27" s="3"/>
     </row>
     <row r="28" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4113,18 +4154,18 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
       <c r="T28" s="3"/>
     </row>
     <row r="29" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4157,18 +4198,18 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
       <c r="T30" s="3"/>
     </row>
     <row r="31" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4179,18 +4220,18 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
       <c r="T31" s="3"/>
     </row>
     <row r="32" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4245,18 +4286,18 @@
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
       <c r="T34" s="3"/>
     </row>
     <row r="35" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4267,18 +4308,18 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
       <c r="T35" s="3"/>
     </row>
     <row r="36" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4289,18 +4330,18 @@
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
       <c r="T36" s="3"/>
     </row>
     <row r="37" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4311,18 +4352,18 @@
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
       <c r="T37" s="3"/>
     </row>
     <row r="38" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4333,62 +4374,62 @@
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
       <c r="T38" s="3"/>
     </row>
     <row r="39" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="19"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="26"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
       <c r="T39" s="3"/>
     </row>
     <row r="40" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="19"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
       <c r="T40" s="3"/>
     </row>
     <row r="41" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4399,18 +4440,18 @@
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
       <c r="T41" s="3"/>
     </row>
     <row r="42" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -4965,6 +5006,14 @@
     </row>
   </sheetData>
   <mergeCells count="125">
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="P11:S11"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="M5:O5"/>
@@ -4973,14 +5022,15 @@
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:S3"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="P8:S8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:K7"/>
@@ -4990,18 +5040,6 @@
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="L7:O7"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="P11:S11"/>
     <mergeCell ref="P15:S15"/>
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="P16:S16"/>
@@ -5018,6 +5056,13 @@
     <mergeCell ref="L14:O14"/>
     <mergeCell ref="P14:S14"/>
     <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="P40:S40"/>
     <mergeCell ref="B42:S42"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="H19:K19"/>
@@ -5042,11 +5087,6 @@
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="P31:S31"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:O35"/>
@@ -5067,9 +5107,14 @@
     <mergeCell ref="L25:O25"/>
     <mergeCell ref="P25:S25"/>
     <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="P36:S36"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:O27"/>
@@ -5082,14 +5127,10 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:O28"/>
     <mergeCell ref="P28:S28"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="P31:S31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
